--- a/auto-reports-bot/tables/bot_table.xlsx
+++ b/auto-reports-bot/tables/bot_table.xlsx
@@ -462,48 +462,44 @@
     <row r="2" ht="12" customHeight="1" s="7">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 17:01:21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Словакия</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Bingoal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sl35</t>
+          <t>Lz5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Dagon Stars United FC - Dagon Port FC</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
-        </is>
-      </c>
-      <c r="H2" s="11" t="inlineStr">
-        <is>
-          <t>17.27</t>
-        </is>
-      </c>
-      <c r="I2" s="11" t="inlineStr">
-        <is>
-          <t>33.32</t>
-        </is>
+          <t>artmon3</t>
+        </is>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>58.84</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="J2" s="11" t="inlineStr">
         <is>
@@ -511,7 +507,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6089492843</v>
+        <v>5583430330</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -522,48 +518,44 @@
     <row r="3" ht="12" customHeight="1" s="7">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 17:01:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Словакия</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Bingoal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sl35</t>
+          <t>Lz5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Dagon Stars United FC - Dagon Port FC</t>
         </is>
       </c>
       <c r="G3" s="11" t="inlineStr">
         <is>
-          <t>Maskmasquerade</t>
-        </is>
-      </c>
-      <c r="H3" s="11" t="inlineStr">
-        <is>
-          <t>17.27</t>
-        </is>
-      </c>
-      <c r="I3" s="11" t="inlineStr">
-        <is>
-          <t>33.32</t>
-        </is>
+          <t>artmon3</t>
+        </is>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="J3" s="11" t="inlineStr">
         <is>
@@ -571,7 +563,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>5876334953</v>
+        <v>5583430330</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -582,7 +574,7 @@
     <row r="4" ht="12" customHeight="1" s="7">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -607,22 +599,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
-          <t>huokbgfy</t>
+          <t>schijn_zon</t>
         </is>
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J4" s="11" t="inlineStr">
@@ -631,7 +623,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5864372433</v>
+        <v>6089492843</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -642,7 +634,7 @@
     <row r="5" ht="12" customHeight="1" s="7">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -667,22 +659,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
-          <t>vjxxq</t>
+          <t>LAMER22801</t>
         </is>
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J5" s="11" t="inlineStr">
@@ -691,7 +683,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>6205956251</v>
+        <v>954708490</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -702,7 +694,7 @@
     <row r="6" ht="12" customHeight="1" s="7">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -727,22 +719,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>svyat_anok</t>
+          <t>Maskmasquerade</t>
         </is>
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="I6" s="11" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J6" s="11" t="inlineStr">
@@ -751,7 +743,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>6061324949</v>
+        <v>5876334953</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -762,7 +754,7 @@
     <row r="7" ht="15.75" customHeight="1" s="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22.09.2025 05:31:28</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -787,22 +779,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
-          <t>TonyManage</t>
+          <t>huokbgfy</t>
         </is>
       </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="I7" s="11" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J7" s="11" t="inlineStr">
@@ -811,7 +803,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>5458809412</v>
+        <v>5864372433</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -822,7 +814,7 @@
     <row r="8" ht="12" customHeight="1" s="7">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -832,37 +824,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
+          <t>svyat_anok</t>
         </is>
       </c>
       <c r="H8" s="11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="I8" s="11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J8" s="11" t="inlineStr">
@@ -871,7 +863,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6089492843</v>
+        <v>6061324949</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -882,7 +874,7 @@
     <row r="9" ht="12" customHeight="1" s="7">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:19:44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -892,37 +884,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
-          <t>Maskmasquerade</t>
+          <t>TonyManage</t>
         </is>
       </c>
       <c r="H9" s="11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="I9" s="11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J9" s="11" t="inlineStr">
@@ -931,7 +923,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>5876334953</v>
+        <v>5458809412</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -942,7 +934,7 @@
     <row r="10" ht="12" customHeight="1" s="7">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -952,37 +944,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
-          <t>huokbgfy</t>
+          <t>TonyManage</t>
         </is>
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="I10" s="11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J10" s="11" t="inlineStr">
@@ -991,7 +983,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>5864372433</v>
+        <v>5458809412</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1002,7 +994,7 @@
     <row r="11" ht="12" customHeight="1" s="7">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1012,37 +1004,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>vjxxq</t>
+          <t>LAMER22801</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="I11" s="11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J11" s="11" t="inlineStr">
@@ -1051,7 +1043,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>6205956251</v>
+        <v>954708490</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1062,7 +1054,7 @@
     <row r="12" ht="12" customHeight="1" s="7">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1072,22 +1064,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
@@ -1097,12 +1089,12 @@
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="I12" s="11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J12" s="11" t="inlineStr">
@@ -1122,7 +1114,7 @@
     <row r="13" ht="12" customHeight="1" s="7">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22.09.2025 08:55:35</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1132,37 +1124,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Словакия</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interwetten</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Es14</t>
+          <t>Sl35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Olancho - Atletico Choloma</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>TonyManage</t>
+          <t>Maskmasquerade</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="I13" s="11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J13" s="11" t="inlineStr">
@@ -1171,7 +1163,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>5458809412</v>
+        <v>5876334953</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1182,7 +1174,7 @@
     <row r="14" ht="12" customHeight="1" s="7">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22.09.2025 08:57:12</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1207,22 +1199,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>Maskmasquerade</t>
+          <t>huokbgfy</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>38.73</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="I14" s="11" t="inlineStr">
         <is>
-          <t>66.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J14" s="11" t="inlineStr">
@@ -1231,7 +1223,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>5876334953</v>
+        <v>5864372433</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1242,7 +1234,7 @@
     <row r="15" ht="12" customHeight="1" s="7">
       <c r="A15" t="inlineStr">
         <is>
-          <t>22.09.2025 08:57:12</t>
+          <t>28.09.2025 19:21:10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1267,22 +1259,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>TonyManage</t>
+          <t>schijn_zon</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>38.73</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="I15" s="11" t="inlineStr">
         <is>
-          <t>66.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J15" s="11" t="inlineStr">
@@ -1291,7 +1283,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>5458809412</v>
+        <v>6089492843</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1302,12 +1294,12 @@
     <row r="16" ht="12" customHeight="1" s="7">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22.09.2025 08:57:12</t>
+          <t>28.09.2025 19:22:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Вова</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1327,23 +1319,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Dagon Stars United FC - Dagon Port FC</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
-        </is>
-      </c>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>38.73</t>
-        </is>
-      </c>
-      <c r="I16" s="11" t="inlineStr">
-        <is>
-          <t>66.62</t>
-        </is>
+          <t>TonyManage</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="J16" s="11" t="inlineStr">
         <is>
@@ -1351,7 +1339,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6089492843</v>
+        <v>5458809412</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1362,7 +1350,7 @@
     <row r="17" ht="12" customHeight="1" s="7">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22.09.2025 09:26:49</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1377,32 +1365,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>huokbgfy</t>
+          <t>LAMER22801</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>41.66</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>104.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J17" s="11" t="inlineStr">
@@ -1411,7 +1399,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>5864372433</v>
+        <v>954708490</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1422,7 +1410,7 @@
     <row r="18" ht="12" customHeight="1" s="7">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22.09.2025 09:26:49</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1437,32 +1425,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
+          <t>svyat_anok</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>41.66</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
-          <t>104.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J18" s="11" t="inlineStr">
@@ -1471,7 +1459,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>6089492843</v>
+        <v>6061324949</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1482,44 +1470,48 @@
     <row r="19" ht="12" customHeight="1" s="7">
       <c r="A19" t="inlineStr">
         <is>
-          <t>22.09.2025 09:47:15</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bet 2.0 Supernova</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bingoal</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lz5</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kalaa Sport-AS Ariana</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
-        </is>
-      </c>
-      <c r="H19" s="11" t="n">
-        <v>50</v>
-      </c>
-      <c r="I19" s="11" t="n">
-        <v>89</v>
+          <t>TonyManage</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="J19" s="11" t="inlineStr">
         <is>
@@ -1527,7 +1519,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>6089492843</v>
+        <v>5458809412</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1538,12 +1530,12 @@
     <row r="20" ht="12" customHeight="1" s="7">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22.09.2025 09:54:39</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1553,27 +1545,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
+          <t>Maskmasquerade</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>41.66</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
@@ -1587,7 +1579,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>6089492843</v>
+        <v>5876334953</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1598,12 +1590,12 @@
     <row r="21" ht="12" customHeight="1" s="7">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22.09.2025 09:54:39</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1613,17 +1605,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Parikrma FC - Bengaluru B</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G21" s="11" t="inlineStr">
@@ -1633,7 +1625,7 @@
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>41.66</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="I21" s="11" t="inlineStr">
@@ -1658,7 +1650,7 @@
     <row r="22" ht="12" customHeight="1" s="7">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 19:32:57</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1673,17 +1665,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Es8</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
@@ -1693,7 +1685,7 @@
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="I22" s="11" t="inlineStr">
@@ -1718,42 +1710,42 @@
     <row r="23" ht="12" customHeight="1" s="7">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>Maskmasquerade</t>
+          <t>LAMER22801</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I23" s="11" t="inlineStr">
@@ -1767,7 +1759,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>5876334953</v>
+        <v>954708490</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1778,42 +1770,42 @@
     <row r="24" ht="12" customHeight="1" s="7">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>huokbgfy</t>
+          <t>svyat_anok</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I24" s="11" t="inlineStr">
@@ -1827,7 +1819,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>5864372433</v>
+        <v>6061324949</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1838,32 +1830,32 @@
     <row r="25" ht="12" customHeight="1" s="7">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:11</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Es16</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Olympic FC Cochabamba vs Chaco FC Pando</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G25" s="11" t="inlineStr">
@@ -1873,7 +1865,7 @@
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I25" s="11" t="inlineStr">
@@ -1898,47 +1890,47 @@
     <row r="26" ht="12" customHeight="1" s="7">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:33</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Goldenbull</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Es13</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
+          <t>Maskmasquerade</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I26" s="11" t="inlineStr">
         <is>
-          <t>57.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J26" s="11" t="inlineStr">
@@ -1947,7 +1939,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>6089492843</v>
+        <v>5876334953</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1958,47 +1950,47 @@
     <row r="27" ht="12" customHeight="1" s="7">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:33</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Goldenbull</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Es13</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>Maskmasquerade</t>
+          <t>huokbgfy</t>
         </is>
       </c>
       <c r="H27" s="11" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I27" s="11" t="inlineStr">
         <is>
-          <t>57.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J27" s="11" t="inlineStr">
@@ -2007,7 +1999,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5876334953</v>
+        <v>5864372433</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2018,47 +2010,47 @@
     <row r="28" ht="12" customHeight="1" s="7">
       <c r="A28" t="inlineStr">
         <is>
-          <t>22.09.2025 10:27:33</t>
+          <t>28.09.2025 21:25:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Goldenbull</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Es13</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>TonyManage</t>
+          <t>schijn_zon</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I28" s="11" t="inlineStr">
         <is>
-          <t>57.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J28" s="11" t="inlineStr">
@@ -2067,7 +2059,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5458809412</v>
+        <v>6089492843</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2078,47 +2070,47 @@
     <row r="29" ht="12" customHeight="1" s="7">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22.09.2025 10:29:56</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Speedybet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Es10</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
+          <t>LAMER22801</t>
         </is>
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I29" s="11" t="inlineStr">
         <is>
-          <t>46.67</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="J29" s="11" t="inlineStr">
@@ -2127,7 +2119,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>6089492843</v>
+        <v>954708490</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2138,47 +2130,47 @@
     <row r="30" ht="12" customHeight="1" s="7">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22.09.2025 10:29:56</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Speedybet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Es10</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>Maskmasquerade</t>
+          <t>svyat_anok</t>
         </is>
       </c>
       <c r="H30" s="11" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I30" s="11" t="inlineStr">
         <is>
-          <t>46.67</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="J30" s="11" t="inlineStr">
@@ -2187,7 +2179,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5876334953</v>
+        <v>6061324949</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2198,32 +2190,32 @@
     <row r="31" ht="12" customHeight="1" s="7">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22.09.2025 10:29:56</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Speedybet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Es10</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Emelec - El Nacional</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G31" s="11" t="inlineStr">
@@ -2233,12 +2225,12 @@
       </c>
       <c r="H31" s="11" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I31" s="11" t="inlineStr">
         <is>
-          <t>46.67</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="J31" s="11" t="inlineStr">
@@ -2258,44 +2250,48 @@
     <row r="32" ht="12" customHeight="1" s="7">
       <c r="A32" t="inlineStr">
         <is>
-          <t>22.09.2025 15:54:46</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bet365</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Any1</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VTV Binh Dien Long An (W) - Noed Chameleons (W)</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t>huokbgfy</t>
-        </is>
-      </c>
-      <c r="H32" s="11" t="n">
-        <v>83.33</v>
-      </c>
-      <c r="I32" s="11" t="n">
-        <v>0</v>
+          <t>Maskmasquerade</t>
+        </is>
+      </c>
+      <c r="H32" s="11" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="I32" s="11" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
       </c>
       <c r="J32" s="11" t="inlineStr">
         <is>
@@ -2303,7 +2299,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5864372433</v>
+        <v>5876334953</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2314,7 +2310,7 @@
     <row r="33" ht="12" customHeight="1" s="7">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2334,27 +2330,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tk50</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
-          <t>schijn_zon</t>
+          <t>huokbgfy</t>
         </is>
       </c>
       <c r="H33" s="11" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I33" s="11" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="J33" s="11" t="inlineStr">
@@ -2363,7 +2359,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>6089492843</v>
+        <v>5864372433</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2374,7 +2370,7 @@
     <row r="34" ht="12" customHeight="1" s="7">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>28.09.2025 21:25:53</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2394,27 +2390,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tk50</t>
+          <t>Tk53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
+          <t>Bandari FC - Shabana</t>
         </is>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
-          <t>Maskmasquerade</t>
+          <t>schijn_zon</t>
         </is>
       </c>
       <c r="H34" s="11" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="I34" s="11" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="J34" s="11" t="inlineStr">
@@ -2423,7 +2419,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>5876334953</v>
+        <v>6089492843</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2434,7 +2430,7 @@
     <row r="35" ht="12" customHeight="1" s="7">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>29.09.2025 16:44:39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2454,28 +2450,20 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" s="11" t="inlineStr">
         <is>
           <t>huokbgfy</t>
         </is>
       </c>
-      <c r="H35" s="11" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="I35" s="11" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
+      <c r="H35" s="11" t="n">
+        <v>51.29</v>
+      </c>
+      <c r="I35" s="11" t="n">
+        <v>82.06400000000001</v>
       </c>
       <c r="J35" s="11" t="inlineStr">
         <is>
@@ -2494,7 +2482,7 @@
     <row r="36" ht="12" customHeight="1" s="7">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22.09.2025 18:29:05</t>
+          <t>29.09.2025 17:46:46</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2514,27 +2502,23 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>JK Narva Trans v Maardu Linnameeskond</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" s="11" t="inlineStr">
         <is>
-          <t>TonyManage</t>
+          <t>huokbgfy</t>
         </is>
       </c>
       <c r="H36" s="11" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="I36" s="11" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>41.03</t>
         </is>
       </c>
       <c r="J36" s="11" t="inlineStr">
@@ -2543,7 +2527,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>5458809412</v>
+        <v>5864372433</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2554,44 +2538,44 @@
     <row r="37" ht="12" customHeight="1" s="7">
       <c r="A37" t="inlineStr">
         <is>
-          <t>24.09.2025 10:49:37</t>
+          <t>29.09.2025 17:46:46</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H37" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I37" s="11" t="n">
-        <v>0</v>
+          <t>Maskmasquerade</t>
+        </is>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="I37" s="11" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
       </c>
       <c r="J37" s="11" t="inlineStr">
         <is>
@@ -2599,7 +2583,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>5583430330</v>
+        <v>5876334953</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2610,44 +2594,44 @@
     <row r="38" ht="12" customHeight="1" s="7">
       <c r="A38" t="inlineStr">
         <is>
-          <t>24.09.2025 10:49:44</t>
+          <t>29.09.2025 17:46:46</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H38" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I38" s="11" t="n">
-        <v>0</v>
+          <t>LAMER22801</t>
+        </is>
+      </c>
+      <c r="H38" s="11" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="I38" s="11" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
       </c>
       <c r="J38" s="11" t="inlineStr">
         <is>
@@ -2655,7 +2639,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>5583430330</v>
+        <v>954708490</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2666,44 +2650,44 @@
     <row r="39" ht="12" customHeight="1" s="7">
       <c r="A39" t="inlineStr">
         <is>
-          <t>24.09.2025 10:49:51</t>
+          <t>29.09.2025 18:06:02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H39" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I39" s="11" t="n">
-        <v>0</v>
+          <t>huokbgfy</t>
+        </is>
+      </c>
+      <c r="H39" s="11" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="I39" s="11" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
       </c>
       <c r="J39" s="11" t="inlineStr">
         <is>
@@ -2711,7 +2695,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5583430330</v>
+        <v>5864372433</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2722,44 +2706,44 @@
     <row r="40" ht="12" customHeight="1" s="7">
       <c r="A40" t="inlineStr">
         <is>
-          <t>24.09.2025 10:50:02</t>
+          <t>29.09.2025 18:06:02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H40" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I40" s="11" t="n">
-        <v>0</v>
+          <t>Maskmasquerade</t>
+        </is>
+      </c>
+      <c r="H40" s="11" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="I40" s="11" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
       </c>
       <c r="J40" s="11" t="inlineStr">
         <is>
@@ -2767,7 +2751,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5583430330</v>
+        <v>5876334953</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2778,44 +2762,44 @@
     <row r="41" ht="12" customHeight="1" s="7">
       <c r="A41" t="inlineStr">
         <is>
-          <t>24.09.2025 10:50:15</t>
+          <t>29.09.2025 18:06:02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Hepsibahis</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Tk53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H41" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I41" s="11" t="n">
-        <v>0</v>
+          <t>LAMER22801</t>
+        </is>
+      </c>
+      <c r="H41" s="11" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="I41" s="11" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
       </c>
       <c r="J41" s="11" t="inlineStr">
         <is>
@@ -2823,7 +2807,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5583430330</v>
+        <v>954708490</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2834,12 +2818,12 @@
     <row r="42" ht="12" customHeight="1" s="7">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24.09.2025 10:50:32</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2849,29 +2833,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Es8</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" s="11" t="inlineStr">
         <is>
           <t>Maskmasquerade</t>
         </is>
       </c>
-      <c r="H42" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I42" s="11" t="n">
-        <v>0</v>
+      <c r="H42" s="11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="I42" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="J42" s="11" t="inlineStr">
         <is>
@@ -2890,44 +2874,44 @@
     <row r="43" ht="12" customHeight="1" s="7">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24.09.2025 10:54:20</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Вова</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Словакия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Ho Chi Minh City - Nxied Chameleons</t>
-        </is>
-      </c>
+          <t>Es8</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" s="11" t="inlineStr">
         <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H43" s="11" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="I43" s="11" t="n">
-        <v>0</v>
+          <t>TonyManage</t>
+        </is>
+      </c>
+      <c r="H43" s="11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="I43" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="J43" s="11" t="inlineStr">
         <is>
@@ -2935,7 +2919,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>6061324949</v>
+        <v>5458809412</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2946,44 +2930,44 @@
     <row r="44" ht="12" customHeight="1" s="7">
       <c r="A44" t="inlineStr">
         <is>
-          <t>24.09.2025 10:55:31</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bet 2.0</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hepsibahis</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tk50</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Thanh Pho Ho Chi Minh v Nxled Chameleons</t>
-        </is>
-      </c>
+          <t>Es8</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" s="11" t="inlineStr">
         <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H44" s="11" t="n">
-        <v>51.21</v>
-      </c>
-      <c r="I44" s="11" t="n">
-        <v>0</v>
+          <t>LAMER22801</t>
+        </is>
+      </c>
+      <c r="H44" s="11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="I44" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="J44" s="11" t="inlineStr">
         <is>
@@ -2991,7 +2975,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>6061324949</v>
+        <v>954708490</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3002,7 +2986,7 @@
     <row r="45" ht="12" customHeight="1" s="7">
       <c r="A45" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:35:59</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3017,32 +3001,28 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Retabet</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Es8</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" s="11" t="inlineStr">
         <is>
-          <t>Maskmasquerade</t>
+          <t>huokbgfy</t>
         </is>
       </c>
       <c r="H45" s="11" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="I45" s="11" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J45" s="11" t="inlineStr">
@@ -3051,7 +3031,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5876334953</v>
+        <v>5864372433</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3062,47 +3042,43 @@
     <row r="46" ht="12" customHeight="1" s="7">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
+          <t>LAMER22801</t>
         </is>
       </c>
       <c r="H46" s="11" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="I46" s="11" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J46" s="11" t="inlineStr">
@@ -3111,7 +3087,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>5583430330</v>
+        <v>954708490</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3122,47 +3098,43 @@
     <row r="47" ht="12" customHeight="1" s="7">
       <c r="A47" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" s="11" t="inlineStr">
         <is>
-          <t>svyat_anok</t>
+          <t>huokbgfy</t>
         </is>
       </c>
       <c r="H47" s="11" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="I47" s="11" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J47" s="11" t="inlineStr">
@@ -3171,7 +3143,7 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>6061324949</v>
+        <v>5864372433</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3182,47 +3154,43 @@
     <row r="48" ht="12" customHeight="1" s="7">
       <c r="A48" t="inlineStr">
         <is>
-          <t>24.09.2025 12:02:41</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Williamhill</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Es16</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Más/Menos 8.5 Juegos - Max Wiskandt _ Grigory Shebekin</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" s="11" t="inlineStr">
         <is>
-          <t>vjxxq</t>
+          <t>TonyManage</t>
         </is>
       </c>
       <c r="H48" s="11" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="I48" s="11" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J48" s="11" t="inlineStr">
@@ -3231,7 +3199,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>6205956251</v>
+        <v>5458809412</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3242,37 +3210,33 @@
     <row r="49" ht="12" customHeight="1" s="7">
       <c r="A49" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:28</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>Bet 2.0 Supernova</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Бельгия</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>Scooore</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Ez5</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
+          <t>Maskmasquerade</t>
         </is>
       </c>
       <c r="H49" s="11" t="inlineStr">
@@ -3291,7 +3255,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>5583430330</v>
+        <v>5876334953</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3302,7 +3266,7 @@
     <row r="50" ht="12" customHeight="1" s="7">
       <c r="A50" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3317,19 +3281,15 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" s="11" t="inlineStr">
         <is>
           <t>Maskmasquerade</t>
@@ -3362,7 +3322,7 @@
     <row r="51" ht="12" customHeight="1" s="7">
       <c r="A51" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3377,22 +3337,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" s="11" t="inlineStr">
         <is>
-          <t>vjxxq</t>
+          <t>TonyManage</t>
         </is>
       </c>
       <c r="H51" s="11" t="inlineStr">
@@ -3411,7 +3367,7 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>6205956251</v>
+        <v>5458809412</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3422,7 +3378,7 @@
     <row r="52" ht="12" customHeight="1" s="7">
       <c r="A52" t="inlineStr">
         <is>
-          <t>24.09.2025 16:05:31</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3437,22 +3393,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Retabet</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr">
         <is>
-          <t>svyat_anok</t>
+          <t>LAMER22801</t>
         </is>
       </c>
       <c r="H52" s="11" t="inlineStr">
@@ -3471,7 +3423,7 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>6061324949</v>
+        <v>954708490</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3482,44 +3434,44 @@
     <row r="53" ht="12" customHeight="1" s="7">
       <c r="A53" t="inlineStr">
         <is>
-          <t>24.09.2025 16:07:28</t>
+          <t>29.09.2025 19:36:37</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bet 2.0 Supernova</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bingoal</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H53" s="11" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="I53" s="11" t="n">
-        <v>61.6845</v>
+          <t>huokbgfy</t>
+        </is>
+      </c>
+      <c r="H53" s="11" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="I53" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="J53" s="11" t="inlineStr">
         <is>
@@ -3527,7 +3479,7 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>5583430330</v>
+        <v>5864372433</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3538,44 +3490,44 @@
     <row r="54" ht="12" customHeight="1" s="7">
       <c r="A54" t="inlineStr">
         <is>
-          <t>24.09.2025 16:07:40</t>
+          <t>29.09.2025 22:36:21</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bet 2.0 Supernova</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bingoal</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H54" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I54" s="11" t="n">
-        <v>62.5</v>
+          <t>LAMER22801</t>
+        </is>
+      </c>
+      <c r="H54" s="11" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="I54" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="J54" s="11" t="inlineStr">
         <is>
@@ -3583,7 +3535,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>5583430330</v>
+        <v>954708490</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3594,44 +3546,44 @@
     <row r="55" ht="12" customHeight="1" s="7">
       <c r="A55" t="inlineStr">
         <is>
-          <t>24.09.2025 16:07:51</t>
+          <t>29.09.2025 22:36:21</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Bet 2.0 Supernova</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bingoal</t>
+          <t>888sport</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
+          <t>Es9</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" s="11" t="inlineStr">
         <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H55" s="11" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="I55" s="11" t="n">
-        <v>60.918</v>
+          <t>huokbgfy</t>
+        </is>
+      </c>
+      <c r="H55" s="11" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="I55" s="11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
       <c r="J55" s="11" t="inlineStr">
         <is>
@@ -3639,7 +3591,7 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>5583430330</v>
+        <v>5864372433</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3648,2768 +3600,292 @@
       </c>
     </row>
     <row r="56" ht="12" customHeight="1" s="7">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:07:59</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="G56" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H56" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="I56" s="11" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="J56" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G56" s="11" t="n"/>
+      <c r="H56" s="11" t="n"/>
+      <c r="I56" s="11" t="n"/>
+      <c r="J56" s="11" t="n"/>
     </row>
     <row r="57" ht="12" customHeight="1" s="7">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="G57" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H57" s="11" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="I57" s="11" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="J57" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G57" s="11" t="n"/>
+      <c r="H57" s="11" t="n"/>
+      <c r="I57" s="11" t="n"/>
+      <c r="J57" s="11" t="n"/>
     </row>
     <row r="58" ht="12" customHeight="1" s="7">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="G58" s="11" t="inlineStr">
-        <is>
-          <t>Maskmasquerade</t>
-        </is>
-      </c>
-      <c r="H58" s="11" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="I58" s="11" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="J58" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>5876334953</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G58" s="11" t="n"/>
+      <c r="H58" s="11" t="n"/>
+      <c r="I58" s="11" t="n"/>
+      <c r="J58" s="11" t="n"/>
     </row>
     <row r="59" ht="12" customHeight="1" s="7">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="G59" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H59" s="11" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="I59" s="11" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="J59" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G59" s="11" t="n"/>
+      <c r="H59" s="11" t="n"/>
+      <c r="I59" s="11" t="n"/>
+      <c r="J59" s="11" t="n"/>
     </row>
     <row r="60" ht="12" customHeight="1" s="7">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:08:59</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Bet365</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Any1</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="G60" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H60" s="11" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="I60" s="11" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="J60" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G60" s="11" t="n"/>
+      <c r="H60" s="11" t="n"/>
+      <c r="I60" s="11" t="n"/>
+      <c r="J60" s="11" t="n"/>
     </row>
     <row r="61" ht="12" customHeight="1" s="7">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:09:25</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="G61" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H61" s="11" t="n">
-        <v>56.45</v>
-      </c>
-      <c r="I61" s="11" t="n">
-        <v>143.9475</v>
-      </c>
-      <c r="J61" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G61" s="11" t="n"/>
+      <c r="H61" s="11" t="n"/>
+      <c r="I61" s="11" t="n"/>
+      <c r="J61" s="11" t="n"/>
     </row>
     <row r="62" ht="12" customHeight="1" s="7">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>24.09.2025 16:09:55</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>FkZvijezda 09 - Famos Volkovici</t>
-        </is>
-      </c>
-      <c r="G62" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H62" s="11" t="n">
-        <v>58.33</v>
-      </c>
-      <c r="I62" s="11" t="n">
-        <v>145.825</v>
-      </c>
-      <c r="J62" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G62" s="11" t="n"/>
+      <c r="H62" s="11" t="n"/>
+      <c r="I62" s="11" t="n"/>
+      <c r="J62" s="11" t="n"/>
     </row>
     <row r="63" ht="12" customHeight="1" s="7">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="G63" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H63" s="11" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="I63" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J63" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G63" s="11" t="n"/>
+      <c r="H63" s="11" t="n"/>
+      <c r="I63" s="11" t="n"/>
+      <c r="J63" s="11" t="n"/>
     </row>
     <row r="64" ht="12" customHeight="1" s="7">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="G64" s="11" t="inlineStr">
-        <is>
-          <t>Maskmasquerade</t>
-        </is>
-      </c>
-      <c r="H64" s="11" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="I64" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J64" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>5876334953</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G64" s="11" t="n"/>
+      <c r="H64" s="11" t="n"/>
+      <c r="I64" s="11" t="n"/>
+      <c r="J64" s="11" t="n"/>
     </row>
     <row r="65" ht="12" customHeight="1" s="7">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="G65" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H65" s="11" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="I65" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J65" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G65" s="11" t="n"/>
+      <c r="H65" s="11" t="n"/>
+      <c r="I65" s="11" t="n"/>
+      <c r="J65" s="11" t="n"/>
     </row>
     <row r="66" ht="12" customHeight="1" s="7">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>24.09.2025 21:12:11</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>KSA Juniors - ICL Youngstars FC</t>
-        </is>
-      </c>
-      <c r="G66" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H66" s="11" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="I66" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J66" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G66" s="11" t="n"/>
+      <c r="H66" s="11" t="n"/>
+      <c r="I66" s="11" t="n"/>
+      <c r="J66" s="11" t="n"/>
     </row>
     <row r="67" ht="12" customHeight="1" s="7">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:18:40</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Dagon Port FC U21 - Hantharwady United FC U21</t>
-        </is>
-      </c>
-      <c r="G67" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H67" s="11" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="I67" s="11" t="n">
-        <v>81.62</v>
-      </c>
-      <c r="J67" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G67" s="11" t="n"/>
+      <c r="H67" s="11" t="n"/>
+      <c r="I67" s="11" t="n"/>
+      <c r="J67" s="11" t="n"/>
     </row>
     <row r="68" ht="12" customHeight="1" s="7">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:19:08</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Dagon Port FC U21 - Hantharwady United FC U21</t>
-        </is>
-      </c>
-      <c r="G68" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H68" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I68" s="11" t="n">
-        <v>35</v>
-      </c>
-      <c r="J68" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G68" s="11" t="n"/>
+      <c r="H68" s="11" t="n"/>
+      <c r="I68" s="11" t="n"/>
+      <c r="J68" s="11" t="n"/>
     </row>
     <row r="69" ht="12" customHeight="1" s="7">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:20:15</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Dagon Port FC U21 - Hantharwady United FC U21</t>
-        </is>
-      </c>
-      <c r="G69" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H69" s="11" t="n">
-        <v>50</v>
-      </c>
-      <c r="I69" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="J69" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G69" s="11" t="n"/>
+      <c r="H69" s="11" t="n"/>
+      <c r="I69" s="11" t="n"/>
+      <c r="J69" s="11" t="n"/>
     </row>
     <row r="70" ht="12" customHeight="1" s="7">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:20:33</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Dagon Port FC U21 - Hantharwady United FC U21</t>
-        </is>
-      </c>
-      <c r="G70" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H70" s="11" t="n">
-        <v>50</v>
-      </c>
-      <c r="I70" s="11" t="n">
-        <v>350</v>
-      </c>
-      <c r="J70" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G70" s="11" t="n"/>
+      <c r="H70" s="11" t="n"/>
+      <c r="I70" s="11" t="n"/>
+      <c r="J70" s="11" t="n"/>
     </row>
     <row r="71" ht="12" customHeight="1" s="7">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>25.09.2025 10:38:47</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Soccer XI vs Mumbai Strikers</t>
-        </is>
-      </c>
-      <c r="G71" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H71" s="11" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="I71" s="11" t="n">
-        <v>199.92</v>
-      </c>
-      <c r="J71" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G71" s="11" t="n"/>
+      <c r="H71" s="11" t="n"/>
+      <c r="I71" s="11" t="n"/>
+      <c r="J71" s="11" t="n"/>
     </row>
     <row r="72" ht="12" customHeight="1" s="7">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>25.09.2025 12:51:24</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>United Stars FC vs Students Union FC</t>
-        </is>
-      </c>
-      <c r="G72" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H72" s="11" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="I72" s="11" t="n">
-        <v>198.95</v>
-      </c>
-      <c r="J72" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G72" s="11" t="n"/>
+      <c r="H72" s="11" t="n"/>
+      <c r="I72" s="11" t="n"/>
+      <c r="J72" s="11" t="n"/>
     </row>
     <row r="73" ht="12" customHeight="1" s="7">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>25.09.2025 12:51:39</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>United Stars FC vs Students Union FC</t>
-        </is>
-      </c>
-      <c r="G73" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H73" s="11" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="I73" s="11" t="n">
-        <v>199.875</v>
-      </c>
-      <c r="J73" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G73" s="11" t="n"/>
+      <c r="H73" s="11" t="n"/>
+      <c r="I73" s="11" t="n"/>
+      <c r="J73" s="11" t="n"/>
     </row>
     <row r="74" ht="12" customHeight="1" s="7">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>25.09.2025 19:37:34</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Flamengo SE vs Independente Simao Dias SE</t>
-        </is>
-      </c>
-      <c r="G74" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H74" s="11" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="I74" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J74" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G74" s="11" t="n"/>
+      <c r="H74" s="11" t="n"/>
+      <c r="I74" s="11" t="n"/>
+      <c r="J74" s="11" t="n"/>
     </row>
     <row r="75" ht="12" customHeight="1" s="7">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>25.09.2025 19:37:34</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Flamengo SE vs Independente Simao Dias SE</t>
-        </is>
-      </c>
-      <c r="G75" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H75" s="11" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="I75" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J75" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G75" s="11" t="n"/>
+      <c r="H75" s="11" t="n"/>
+      <c r="I75" s="11" t="n"/>
+      <c r="J75" s="11" t="n"/>
     </row>
     <row r="76" ht="12" customHeight="1" s="7">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>25.09.2025 19:37:34</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Flamengo SE vs Independente Simao Dias SE</t>
-        </is>
-      </c>
-      <c r="G76" s="11" t="inlineStr">
-        <is>
-          <t>Maskmasquerade</t>
-        </is>
-      </c>
-      <c r="H76" s="11" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="I76" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J76" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
-        <v>5876334953</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G76" s="11" t="n"/>
+      <c r="H76" s="11" t="n"/>
+      <c r="I76" s="11" t="n"/>
+      <c r="J76" s="11" t="n"/>
     </row>
     <row r="77" ht="12" customHeight="1" s="7">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>26.09.2025 12:25:28</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Varmanya United FC - Yangon United</t>
-        </is>
-      </c>
-      <c r="G77" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H77" s="11" t="n">
-        <v>150</v>
-      </c>
-      <c r="I77" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="J77" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G77" s="11" t="n"/>
+      <c r="H77" s="11" t="n"/>
+      <c r="I77" s="11" t="n"/>
+      <c r="J77" s="11" t="n"/>
     </row>
     <row r="78" ht="12" customHeight="1" s="7">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>26.09.2025 13:13:30</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>SD Mlinse vs KMN Benedikt</t>
-        </is>
-      </c>
-      <c r="G78" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H78" s="11" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="I78" s="11" t="n">
-        <v>201.552</v>
-      </c>
-      <c r="J78" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G78" s="11" t="n"/>
+      <c r="H78" s="11" t="n"/>
+      <c r="I78" s="11" t="n"/>
+      <c r="J78" s="11" t="n"/>
     </row>
     <row r="79" ht="12" customHeight="1" s="7">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>26.09.2025 17:38:53</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>888sport</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Es9</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Flacara Moreni - Teleajenul Valeni de Munte</t>
-        </is>
-      </c>
-      <c r="G79" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H79" s="11" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="I79" s="11" t="inlineStr">
-        <is>
-          <t>40.83</t>
-        </is>
-      </c>
-      <c r="J79" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G79" s="11" t="n"/>
+      <c r="H79" s="11" t="n"/>
+      <c r="I79" s="11" t="n"/>
+      <c r="J79" s="11" t="n"/>
     </row>
     <row r="80" ht="12" customHeight="1" s="7">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>26.09.2025 17:38:53</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>888sport</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Es9</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Flacara Moreni - Teleajenul Valeni de Munte</t>
-        </is>
-      </c>
-      <c r="G80" s="11" t="inlineStr">
-        <is>
-          <t>TonyManage</t>
-        </is>
-      </c>
-      <c r="H80" s="11" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="I80" s="11" t="inlineStr">
-        <is>
-          <t>40.83</t>
-        </is>
-      </c>
-      <c r="J80" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K80" t="n">
-        <v>5458809412</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G80" s="11" t="n"/>
+      <c r="H80" s="11" t="n"/>
+      <c r="I80" s="11" t="n"/>
+      <c r="J80" s="11" t="n"/>
     </row>
     <row r="81" ht="12" customHeight="1" s="7">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>26.09.2025 17:38:53</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>888sport</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Es9</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Flacara Moreni - Teleajenul Valeni de Munte</t>
-        </is>
-      </c>
-      <c r="G81" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H81" s="11" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="I81" s="11" t="inlineStr">
-        <is>
-          <t>40.83</t>
-        </is>
-      </c>
-      <c r="J81" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G81" s="11" t="n"/>
+      <c r="H81" s="11" t="n"/>
+      <c r="I81" s="11" t="n"/>
+      <c r="J81" s="11" t="n"/>
     </row>
     <row r="82" ht="12" customHeight="1" s="7">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>26.09.2025 19:42:19</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sao Goncalo EC RJ - Duque de Caxias FC RJ</t>
-        </is>
-      </c>
-      <c r="G82" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H82" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I82" s="11" t="n">
-        <v>176</v>
-      </c>
-      <c r="J82" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G82" s="11" t="n"/>
+      <c r="H82" s="11" t="n"/>
+      <c r="I82" s="11" t="n"/>
+      <c r="J82" s="11" t="n"/>
     </row>
     <row r="83" ht="12" customHeight="1" s="7">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>27.09.2025 08:47:03</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sriwijaya FC vs Persiraja Banda Aceh</t>
-        </is>
-      </c>
-      <c r="G83" s="11" t="inlineStr">
-        <is>
-          <t>LAMER22801</t>
-        </is>
-      </c>
-      <c r="H83" s="11" t="n">
-        <v>90</v>
-      </c>
-      <c r="I83" s="11" t="n">
-        <v>195.3</v>
-      </c>
-      <c r="J83" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K83" t="n">
-        <v>954708490</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G83" s="11" t="n"/>
+      <c r="H83" s="11" t="n"/>
+      <c r="I83" s="11" t="n"/>
+      <c r="J83" s="11" t="n"/>
     </row>
     <row r="84" ht="12" customHeight="1" s="7">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>27.09.2025 09:07:47</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sriwijaya FC vs Persiraja Banda Aceh</t>
-        </is>
-      </c>
-      <c r="G84" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H84" s="11" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="I84" s="11" t="n">
-        <v>199.794</v>
-      </c>
-      <c r="J84" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G84" s="11" t="n"/>
+      <c r="H84" s="11" t="n"/>
+      <c r="I84" s="11" t="n"/>
+      <c r="J84" s="11" t="n"/>
     </row>
     <row r="85" ht="12" customHeight="1" s="7">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>27.09.2025 10:01:05</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Retabet</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Es8</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Quezon City Capitals - Basilan Steel</t>
-        </is>
-      </c>
-      <c r="G85" s="11" t="inlineStr">
-        <is>
-          <t>LAMER22801</t>
-        </is>
-      </c>
-      <c r="H85" s="11" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="I85" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K85" t="n">
-        <v>954708490</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G85" s="11" t="n"/>
+      <c r="H85" s="11" t="n"/>
+      <c r="I85" s="11" t="n"/>
+      <c r="J85" s="11" t="n"/>
     </row>
     <row r="86" ht="12" customHeight="1" s="7">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>27.09.2025 10:59:36</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="G86" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H86" s="11" t="n">
-        <v>150</v>
-      </c>
-      <c r="I86" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G86" s="11" t="n"/>
+      <c r="H86" s="11" t="n"/>
+      <c r="I86" s="11" t="n"/>
+      <c r="J86" s="11" t="n"/>
     </row>
     <row r="87" ht="12" customHeight="1" s="7">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="G87" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H87" s="11" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="I87" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J87" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K87" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G87" s="11" t="n"/>
+      <c r="H87" s="11" t="n"/>
+      <c r="I87" s="11" t="n"/>
+      <c r="J87" s="11" t="n"/>
     </row>
     <row r="88" ht="12" customHeight="1" s="7">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="G88" s="11" t="inlineStr">
-        <is>
-          <t>TonyManage</t>
-        </is>
-      </c>
-      <c r="H88" s="11" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="I88" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J88" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
-        <v>5458809412</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G88" s="11" t="n"/>
+      <c r="H88" s="11" t="n"/>
+      <c r="I88" s="11" t="n"/>
+      <c r="J88" s="11" t="n"/>
     </row>
     <row r="89" ht="12" customHeight="1" s="7">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="G89" s="11" t="inlineStr">
-        <is>
-          <t>artmon3</t>
-        </is>
-      </c>
-      <c r="H89" s="11" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="I89" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J89" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K89" t="n">
-        <v>5583430330</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G89" s="11" t="n"/>
+      <c r="H89" s="11" t="n"/>
+      <c r="I89" s="11" t="n"/>
+      <c r="J89" s="11" t="n"/>
     </row>
     <row r="90" ht="12" customHeight="1" s="7">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="G90" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H90" s="11" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="I90" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J90" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K90" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G90" s="11" t="n"/>
+      <c r="H90" s="11" t="n"/>
+      <c r="I90" s="11" t="n"/>
+      <c r="J90" s="11" t="n"/>
     </row>
     <row r="91" ht="12" customHeight="1" s="7">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:02:12</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Supernova</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Korat City vs Surin Sugar Khongcheemool FC [LIVE</t>
-        </is>
-      </c>
-      <c r="G91" s="11" t="inlineStr">
-        <is>
-          <t>LAMER22801</t>
-        </is>
-      </c>
-      <c r="H91" s="11" t="inlineStr">
-        <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="I91" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J91" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K91" t="n">
-        <v>954708490</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G91" s="11" t="n"/>
+      <c r="H91" s="11" t="n"/>
+      <c r="I91" s="11" t="n"/>
+      <c r="J91" s="11" t="n"/>
     </row>
     <row r="92" ht="12" customHeight="1" s="7">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:15:48</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="G92" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H92" s="11" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="I92" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K92" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G92" s="11" t="n"/>
+      <c r="H92" s="11" t="n"/>
+      <c r="I92" s="11" t="n"/>
+      <c r="J92" s="11" t="n"/>
     </row>
     <row r="93" ht="12" customHeight="1" s="7">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:15:58</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="G93" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H93" s="11" t="n">
-        <v>43.71</v>
-      </c>
-      <c r="I93" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K93" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G93" s="11" t="n"/>
+      <c r="H93" s="11" t="n"/>
+      <c r="I93" s="11" t="n"/>
+      <c r="J93" s="11" t="n"/>
     </row>
     <row r="94" ht="12" customHeight="1" s="7">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:16:22</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="G94" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H94" s="11" t="n">
-        <v>40.69</v>
-      </c>
-      <c r="I94" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K94" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G94" s="11" t="n"/>
+      <c r="H94" s="11" t="n"/>
+      <c r="I94" s="11" t="n"/>
+      <c r="J94" s="11" t="n"/>
     </row>
     <row r="95" ht="12" customHeight="1" s="7">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:16:35</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Bingoal</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Lz5</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="G95" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H95" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="I95" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G95" s="11" t="n"/>
+      <c r="H95" s="11" t="n"/>
+      <c r="I95" s="11" t="n"/>
+      <c r="J95" s="11" t="n"/>
     </row>
     <row r="96" ht="12" customHeight="1" s="7">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:17:34</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Ispe FC - Hantharwady United</t>
-        </is>
-      </c>
-      <c r="G96" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H96" s="11" t="n">
-        <v>75</v>
-      </c>
-      <c r="I96" s="11" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="J96" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K96" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G96" s="11" t="n"/>
+      <c r="H96" s="11" t="n"/>
+      <c r="I96" s="11" t="n"/>
+      <c r="J96" s="11" t="n"/>
     </row>
     <row r="97" ht="12" customHeight="1" s="7">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:17:49</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Ex</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Unibet</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Ve9</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Ispe FC - Hantharwady United</t>
-        </is>
-      </c>
-      <c r="G97" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H97" s="11" t="n">
-        <v>75</v>
-      </c>
-      <c r="I97" s="11" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="J97" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K97" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G97" s="11" t="n"/>
+      <c r="H97" s="11" t="n"/>
+      <c r="I97" s="11" t="n"/>
+      <c r="J97" s="11" t="n"/>
     </row>
     <row r="98" ht="12" customHeight="1" s="7">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>27.09.2025 11:18:24</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Испания</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Goldenbull</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Es13</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Ispe FC - Hantharwady United</t>
-        </is>
-      </c>
-      <c r="G98" s="11" t="inlineStr">
-        <is>
-          <t>svyat_anok</t>
-        </is>
-      </c>
-      <c r="H98" s="11" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="I98" s="11" t="n">
-        <v>139.644</v>
-      </c>
-      <c r="J98" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K98" t="n">
-        <v>6061324949</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G98" s="11" t="n"/>
+      <c r="H98" s="11" t="n"/>
+      <c r="I98" s="11" t="n"/>
+      <c r="J98" s="11" t="n"/>
     </row>
     <row r="99" ht="12" customHeight="1" s="7">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>27.09.2025 14:00:40</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Словакия</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Sl35</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Barito Putera vs Persipal Babel United</t>
-        </is>
-      </c>
-      <c r="G99" s="11" t="inlineStr">
-        <is>
-          <t>vjxxq</t>
-        </is>
-      </c>
-      <c r="H99" s="11" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="I99" s="11" t="n">
-        <v>199.824</v>
-      </c>
-      <c r="J99" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K99" t="n">
-        <v>6205956251</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G99" s="11" t="n"/>
+      <c r="H99" s="11" t="n"/>
+      <c r="I99" s="11" t="n"/>
+      <c r="J99" s="11" t="n"/>
     </row>
     <row r="100" ht="12" customHeight="1" s="7">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>27.09.2025 14:41:40</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Турция</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Bets10</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Tk54</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Chabab Mohammedia - Union Sportif Amal Tiznit</t>
-        </is>
-      </c>
-      <c r="G100" s="11" t="inlineStr">
-        <is>
-          <t>LAMER22801</t>
-        </is>
-      </c>
-      <c r="H100" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I100" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K100" t="n">
-        <v>954708490</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G100" s="11" t="n"/>
+      <c r="H100" s="11" t="n"/>
+      <c r="I100" s="11" t="n"/>
+      <c r="J100" s="11" t="n"/>
     </row>
     <row r="101" ht="12" customHeight="1" s="7">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>27.09.2025 14:42:26</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Турция</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Bets10</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Tk54</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Chabab Mohammedia - Union Sportif Amal Tiznit</t>
-        </is>
-      </c>
-      <c r="G101" s="11" t="inlineStr">
-        <is>
-          <t>LAMER22801</t>
-        </is>
-      </c>
-      <c r="H101" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="I101" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>954708490</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G101" s="11" t="n"/>
+      <c r="H101" s="11" t="n"/>
+      <c r="I101" s="11" t="n"/>
+      <c r="J101" s="11" t="n"/>
     </row>
     <row r="102" ht="12" customHeight="1" s="7">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>27.09.2025 23:01:59</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Bet 2.0</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Ispe FC - Hantharwady United</t>
-        </is>
-      </c>
-      <c r="G102" s="11" t="inlineStr">
-        <is>
-          <t>TonyManage</t>
-        </is>
-      </c>
-      <c r="H102" s="11" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="I102" s="11" t="n">
-        <v>47.5882</v>
-      </c>
-      <c r="J102" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>5458809412</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G102" s="11" t="n"/>
+      <c r="H102" s="11" t="n"/>
+      <c r="I102" s="11" t="n"/>
+      <c r="J102" s="11" t="n"/>
     </row>
     <row r="103" ht="12" customHeight="1" s="7">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>27.09.2025 23:03:22</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Bet 2.0 Supernova</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Бельгия</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Scooore</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Ez5</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Suranaree Black Cat FC - Surin Khongcheemool</t>
-        </is>
-      </c>
-      <c r="G103" s="11" t="inlineStr">
-        <is>
-          <t>TonyManage</t>
-        </is>
-      </c>
-      <c r="H103" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I103" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" s="11" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>5458809412</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="G103" s="11" t="n"/>
+      <c r="H103" s="11" t="n"/>
+      <c r="I103" s="11" t="n"/>
+      <c r="J103" s="11" t="n"/>
     </row>
     <row r="104" ht="12" customHeight="1" s="7">
       <c r="G104" s="11" t="n"/>
